--- a/CashFlow/FLT_cashflow.xlsx
+++ b/CashFlow/FLT_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4506000000.0</v>
+        <v>89983000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4702000000.0</v>
+        <v>117657000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3394811000.0</v>
+        <v>-345938000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2355134000.0</v>
+        <v>-155800000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1623044000.0</v>
+        <v>198756000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-16053000.0</v>
